--- a/website/Users.xlsx
+++ b/website/Users.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UltimaSansa\website\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40754\Desktop\hackitall\UltimaSansa\website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3689E2-5FE6-4882-B801-87664F1480BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2CB7F2-B4EE-4F53-BE1A-E2E9AF3D643D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6731FC37-29E0-4F98-8863-FC5F1890B5EB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6731FC37-29E0-4F98-8863-FC5F1890B5EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
     <t>email</t>
   </si>
   <si>
-    <t>andreamargareta@gmail.com</t>
+    <t>oclock@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -117,7 +117,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Temă Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -436,7 +436,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -457,7 +457,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>

--- a/website/Users.xlsx
+++ b/website/Users.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40754\Desktop\hackitall\UltimaSansa\website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2CB7F2-B4EE-4F53-BE1A-E2E9AF3D643D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460C3010-F0E3-4E04-B430-7BFBE29293A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6731FC37-29E0-4F98-8863-FC5F1890B5EB}"/>
+    <workbookView xWindow="2280" yWindow="1860" windowWidth="7500" windowHeight="8940" xr2:uid="{6731FC37-29E0-4F98-8863-FC5F1890B5EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>password</t>
   </si>
@@ -50,7 +50,22 @@
     <t>email</t>
   </si>
   <si>
-    <t>oclock@gmail.com</t>
+    <t>t3@gmail.com</t>
+  </si>
+  <si>
+    <t>t1@gmail.com</t>
+  </si>
+  <si>
+    <t>t2@gmail.com</t>
+  </si>
+  <si>
+    <t>t4@gmail.com</t>
+  </si>
+  <si>
+    <t>t5@gmail.com</t>
+  </si>
+  <si>
+    <t>t6@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -433,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF0E7F9B-0020-4BEE-9DCF-6D4B0BA7824A}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -457,20 +472,80 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>1001</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>1234567</v>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>12345678</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>12345678</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{26E78074-97D5-49E2-A5BE-007EB0028B18}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{A521428C-5EA7-4CF7-BFAD-B26A2AD520BA}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{445000A6-7010-4909-AC06-AA6392AB0720}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{ED5D2A9A-5E7A-4C2D-ACD6-066018C4D6A3}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{57C6BB26-FC04-4002-B6B9-CA5CEC69159C}"/>
+    <hyperlink ref="B4" r:id="rId6" xr:uid="{AE30EE91-DCE4-42F8-8993-8104938AAA73}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>